--- a/conf/shell_web/other.xlsx
+++ b/conf/shell_web/other.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12940"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>testcase</t>
+  </si>
   <si>
     <t>descrption</t>
   </si>
@@ -46,6 +49,9 @@
     <t>saves</t>
   </si>
   <si>
+    <t>after_verify</t>
+  </si>
+  <si>
     <t>dbtype</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>LOOP_SLEEP</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>B2B shell web-getToken</t>
@@ -110,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,7 +154,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +222,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -167,8 +252,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,107 +289,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,13 +311,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,19 +389,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,109 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +504,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,30 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,17 +567,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,99 +585,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,49 +697,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1090,30 +1093,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="41.6607142857143" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="29.4642857142857" customWidth="1"/>
-    <col min="4" max="4" width="34.8214285714286" customWidth="1"/>
-    <col min="5" max="14" width="29.4642857142857" customWidth="1"/>
-    <col min="15" max="17" width="20.2321428571429" customWidth="1"/>
+    <col min="2" max="2" width="41.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="29.4642857142857" customWidth="1"/>
+    <col min="5" max="5" width="34.8214285714286" customWidth="1"/>
+    <col min="6" max="16" width="29.4642857142857" customWidth="1"/>
+    <col min="17" max="19" width="20.2321428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1134,13 +1137,13 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -1158,60 +1161,78 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="118" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" ht="118" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
+      <c r="L3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
       <formula1>"mysql,redis"</formula1>
     </dataValidation>
   </dataValidations>
